--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -617,7 +617,7 @@
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_SimpleObservationCategory_VS</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>94</v>
